--- a/Results.xlsx
+++ b/Results.xlsx
@@ -219,7 +219,7 @@
                 <a:solidFill>
                   <a:schemeClr val="accent1"/>
                 </a:solidFill>
-                <a:prstDash val="sysDot"/>
+                <a:prstDash val="solid"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
@@ -627,11 +627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397471296"/>
-        <c:axId val="30767408"/>
+        <c:axId val="275693136"/>
+        <c:axId val="275911728"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397471296"/>
+        <c:axId val="275693136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,12 +688,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="30767408"/>
+        <c:crossAx val="275911728"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="30767408"/>
+        <c:axId val="275911728"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397471296"/>
+        <c:crossAx val="275693136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1250,11 +1250,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="397494240"/>
-        <c:axId val="397494632"/>
+        <c:axId val="275709520"/>
+        <c:axId val="275323560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="397494240"/>
+        <c:axId val="275709520"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,12 +1311,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397494632"/>
+        <c:crossAx val="275323560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="397494632"/>
+        <c:axId val="275323560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,7 +1373,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="397494240"/>
+        <c:crossAx val="275709520"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2538,16 +2538,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>100012</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>4762</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>357187</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>538162</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>157162</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>280987</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2874,7 +2874,7 @@
   <dimension ref="A1:B57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B57"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2885,7 +2885,7 @@
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>1</v>
       </c>
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>2.3219809499999999</v>
       </c>
@@ -2901,7 +2901,7 @@
         <v>1.39</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2.3219809499999999</v>
       </c>
@@ -2909,7 +2909,7 @@
         <v>0.80600000000000005</v>
       </c>
     </row>
-    <row r="4" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>2.3219809499999999</v>
       </c>
@@ -2917,7 +2917,7 @@
         <v>1.137</v>
       </c>
     </row>
-    <row r="5" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>2.3219809499999999</v>
       </c>
@@ -2925,7 +2925,7 @@
         <v>1.605</v>
       </c>
     </row>
-    <row r="6" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>2.3219809499999999</v>
       </c>
@@ -2933,7 +2933,7 @@
         <v>1.1639999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>2.3219809499999999</v>
       </c>
@@ -2941,7 +2941,7 @@
         <v>1.0309999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>2.3219809499999999</v>
       </c>
@@ -2949,7 +2949,7 @@
         <v>1.716</v>
       </c>
     </row>
-    <row r="9" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>2.3219809499999999</v>
       </c>
@@ -2957,7 +2957,7 @@
         <v>1.218</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>2.3219809499999999</v>
       </c>
@@ -2965,7 +2965,7 @@
         <v>1.581</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>2.807354922</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>1.359</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>2.807354922</v>
       </c>
@@ -2981,7 +2981,7 @@
         <v>1.181</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>2.807354922</v>
       </c>
@@ -2989,7 +2989,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>2.807354922</v>
       </c>
@@ -2997,7 +2997,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>2.807354922</v>
       </c>
@@ -3005,7 +3005,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>2.807354922</v>
       </c>
@@ -3013,7 +3013,7 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>2.807354922</v>
       </c>
@@ -3021,7 +3021,7 @@
         <v>1.2809999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>2.807354922</v>
       </c>
@@ -3029,7 +3029,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>2.807354922</v>
       </c>
@@ -3037,7 +3037,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="20" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>2.1176950429999999</v>
       </c>
@@ -3045,7 +3045,7 @@
         <v>0.13589999999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>2.1176950429999999</v>
       </c>
@@ -3053,7 +3053,7 @@
         <v>1.181</v>
       </c>
     </row>
-    <row r="22" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>2.1176950429999999</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>1.0740000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>2.1176950429999999</v>
       </c>
@@ -3069,7 +3069,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>2.1176950429999999</v>
       </c>
@@ -3077,7 +3077,7 @@
         <v>1.169</v>
       </c>
     </row>
-    <row r="25" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>2.1176950429999999</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>1.0169999999999999</v>
       </c>
     </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>2.1176950429999999</v>
       </c>
@@ -3093,7 +3093,7 @@
         <v>1.2809999999999999</v>
       </c>
     </row>
-    <row r="27" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
         <v>2.1176950429999999</v>
       </c>
@@ -3101,7 +3101,7 @@
         <v>0.81699999999999995</v>
       </c>
     </row>
-    <row r="28" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
         <v>2.1176950429999999</v>
       </c>
@@ -3109,7 +3109,7 @@
         <v>0.96499999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
         <v>3.4594316190000001</v>
       </c>
@@ -3117,7 +3117,7 @@
         <v>1.272</v>
       </c>
     </row>
-    <row r="30" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
         <v>3.4594316190000001</v>
       </c>
@@ -3125,7 +3125,7 @@
         <v>0.83899999999999997</v>
       </c>
     </row>
-    <row r="31" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
         <v>3.4594316190000001</v>
       </c>
@@ -3133,7 +3133,7 @@
         <v>1.3460000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
         <v>3.4594316190000001</v>
       </c>
@@ -3141,7 +3141,7 @@
         <v>1.1479999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
         <v>3.4594316190000001</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>1.4910000000000001</v>
       </c>
     </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
         <v>3.4594316190000001</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>1.494</v>
       </c>
     </row>
-    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
         <v>3.4594316190000001</v>
       </c>
@@ -3165,7 +3165,7 @@
         <v>1.3340000000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
         <v>3.4594316190000001</v>
       </c>
@@ -3173,7 +3173,7 @@
         <v>1.099</v>
       </c>
     </row>
-    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
         <v>3.4594316190000001</v>
       </c>
@@ -3181,7 +3181,7 @@
         <v>0.96599999999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
         <v>3.4594316190000001</v>
       </c>
@@ -3189,7 +3189,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="39" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
         <v>4</v>
       </c>
@@ -3197,7 +3197,7 @@
         <v>1.76</v>
       </c>
     </row>
-    <row r="40" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
         <v>4</v>
       </c>
@@ -3205,7 +3205,7 @@
         <v>1.6459999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
         <v>4</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>0.43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
         <v>4</v>
       </c>
@@ -3221,7 +3221,7 @@
         <v>0.95699999999999996</v>
       </c>
     </row>
-    <row r="43" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
         <v>4</v>
       </c>
@@ -3229,7 +3229,7 @@
         <v>1.5620000000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
         <v>4</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>1.4670000000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
         <v>4</v>
       </c>
@@ -3245,7 +3245,7 @@
         <v>1.367</v>
       </c>
     </row>
-    <row r="46" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3">
         <v>4</v>
       </c>
@@ -3253,7 +3253,7 @@
         <v>0.60299999999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
         <v>4</v>
       </c>
@@ -3261,7 +3261,7 @@
         <v>1.446</v>
       </c>
     </row>
-    <row r="48" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
         <v>4</v>
       </c>
@@ -3269,7 +3269,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="49" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
         <v>3.2249663649999998</v>
       </c>
@@ -3277,7 +3277,7 @@
         <v>1.2210000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
         <v>3.2249663649999998</v>
       </c>
@@ -3285,7 +3285,7 @@
         <v>1.0129999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
         <v>3.2249663649999998</v>
       </c>
@@ -3293,7 +3293,7 @@
         <v>0.94799999999999995</v>
       </c>
     </row>
-    <row r="52" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
         <v>3.2249663649999998</v>
       </c>
@@ -3301,7 +3301,7 @@
         <v>1.1080000000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" s="3">
         <v>3.2249663649999998</v>
       </c>
@@ -3309,7 +3309,7 @@
         <v>1.3480000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" s="3">
         <v>3.2249663649999998</v>
       </c>
@@ -3317,7 +3317,7 @@
         <v>1.1479999999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" s="3">
         <v>3.2249663649999998</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>1.298</v>
       </c>
     </row>
-    <row r="56" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" s="3">
         <v>3.2249663649999998</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>0.999</v>
       </c>
     </row>
-    <row r="57" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" s="3">
         <v>3.2249663649999998</v>
       </c>
@@ -3353,7 +3353,7 @@
   <dimension ref="B1:D57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D27" sqref="D27:E28"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3384,7 +3384,7 @@
         <v>1.39</v>
       </c>
       <c r="D2" s="1">
-        <f>B2/C2</f>
+        <f t="shared" ref="D2:D33" si="0">B2/C2</f>
         <v>1.6704898920863309</v>
       </c>
     </row>
@@ -3396,7 +3396,7 @@
         <v>0.80600000000000005</v>
       </c>
       <c r="D3" s="1">
-        <f>B3/C3</f>
+        <f t="shared" si="0"/>
         <v>2.8808696650124066</v>
       </c>
     </row>
@@ -3408,7 +3408,7 @@
         <v>1.137</v>
       </c>
       <c r="D4" s="1">
-        <f>B4/C4</f>
+        <f t="shared" si="0"/>
         <v>2.0421996042216359</v>
       </c>
     </row>
@@ -3420,7 +3420,7 @@
         <v>1.605</v>
       </c>
       <c r="D5" s="1">
-        <f>B5/C5</f>
+        <f t="shared" si="0"/>
         <v>1.4467171028037382</v>
       </c>
     </row>
@@ -3432,7 +3432,7 @@
         <v>1.1639999999999999</v>
       </c>
       <c r="D6" s="1">
-        <f>B6/C6</f>
+        <f t="shared" si="0"/>
         <v>1.9948289948453608</v>
       </c>
     </row>
@@ -3444,7 +3444,7 @@
         <v>1.0309999999999999</v>
       </c>
       <c r="D7" s="1">
-        <f>B7/C7</f>
+        <f t="shared" si="0"/>
         <v>2.252163870029098</v>
       </c>
     </row>
@@ -3456,7 +3456,7 @@
         <v>1.716</v>
       </c>
       <c r="D8" s="1">
-        <f>B8/C8</f>
+        <f t="shared" si="0"/>
         <v>1.3531357517482516</v>
       </c>
     </row>
@@ -3468,7 +3468,7 @@
         <v>1.218</v>
       </c>
       <c r="D9" s="1">
-        <f>B9/C9</f>
+        <f t="shared" si="0"/>
         <v>1.9063883004926108</v>
       </c>
     </row>
@@ -3480,7 +3480,7 @@
         <v>1.581</v>
       </c>
       <c r="D10" s="1">
-        <f>B10/C10</f>
+        <f t="shared" si="0"/>
         <v>1.4686786527514231</v>
       </c>
     </row>
@@ -3492,7 +3492,7 @@
         <v>1.359</v>
       </c>
       <c r="D11" s="1">
-        <f>B11/C11</f>
+        <f t="shared" si="0"/>
         <v>2.0657504944812364</v>
       </c>
     </row>
@@ -3504,7 +3504,7 @@
         <v>1.181</v>
       </c>
       <c r="D12" s="1">
-        <f>B12/C12</f>
+        <f t="shared" si="0"/>
         <v>2.3770998492802708</v>
       </c>
     </row>
@@ -3516,7 +3516,7 @@
         <v>1.0740000000000001</v>
       </c>
       <c r="D13" s="1">
-        <f>B13/C13</f>
+        <f t="shared" si="0"/>
         <v>2.6139245083798883</v>
       </c>
     </row>
@@ -3528,7 +3528,7 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="D14" s="1">
-        <f>B14/C14</f>
+        <f t="shared" si="0"/>
         <v>3.0581208300653593</v>
       </c>
     </row>
@@ -3540,7 +3540,7 @@
         <v>1.169</v>
       </c>
       <c r="D15" s="1">
-        <f>B15/C15</f>
+        <f t="shared" si="0"/>
         <v>2.4015012164242941</v>
       </c>
     </row>
@@ -3552,7 +3552,7 @@
         <v>1.0169999999999999</v>
       </c>
       <c r="D16" s="1">
-        <f>B16/C16</f>
+        <f t="shared" si="0"/>
         <v>2.7604276519174045</v>
       </c>
     </row>
@@ -3564,7 +3564,7 @@
         <v>1.2809999999999999</v>
       </c>
       <c r="D17" s="1">
-        <f>B17/C17</f>
+        <f t="shared" si="0"/>
         <v>2.1915338969555038</v>
       </c>
     </row>
@@ -3576,7 +3576,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="D18" s="1">
-        <f>B18/C18</f>
+        <f t="shared" si="0"/>
         <v>3.4361749351285193</v>
       </c>
     </row>
@@ -3588,7 +3588,7 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="D19" s="1">
-        <f>B19/C19</f>
+        <f t="shared" si="0"/>
         <v>2.9091760849740935</v>
       </c>
     </row>
@@ -3600,7 +3600,7 @@
         <v>0.13589999999999999</v>
       </c>
       <c r="D20" s="1">
-        <f>B20/C20</f>
+        <f t="shared" si="0"/>
         <v>15.582744981604121</v>
       </c>
     </row>
@@ -3612,7 +3612,7 @@
         <v>1.181</v>
       </c>
       <c r="D21" s="1">
-        <f>B21/C21</f>
+        <f t="shared" si="0"/>
         <v>1.7931372082980523</v>
       </c>
     </row>
@@ -3624,7 +3624,7 @@
         <v>1.0740000000000001</v>
       </c>
       <c r="D22" s="1">
-        <f>B22/C22</f>
+        <f t="shared" si="0"/>
         <v>1.9717830940409682</v>
       </c>
     </row>
@@ -3636,7 +3636,7 @@
         <v>0.91800000000000004</v>
       </c>
       <c r="D23" s="1">
-        <f>B23/C23</f>
+        <f t="shared" si="0"/>
         <v>2.3068573453159038</v>
       </c>
     </row>
@@ -3648,7 +3648,7 @@
         <v>1.169</v>
       </c>
       <c r="D24" s="1">
-        <f>B24/C24</f>
+        <f t="shared" si="0"/>
         <v>1.8115440915312231</v>
       </c>
     </row>
@@ -3660,7 +3660,7 @@
         <v>1.0169999999999999</v>
       </c>
       <c r="D25" s="1">
-        <f>B25/C25</f>
+        <f t="shared" si="0"/>
         <v>2.0822960108161261</v>
       </c>
     </row>
@@ -3672,7 +3672,7 @@
         <v>1.2809999999999999</v>
       </c>
       <c r="D26" s="1">
-        <f>B26/C26</f>
+        <f t="shared" si="0"/>
         <v>1.6531577228727556</v>
       </c>
     </row>
@@ -3684,7 +3684,7 @@
         <v>0.81699999999999995</v>
       </c>
       <c r="D27" s="1">
-        <f>B27/C27</f>
+        <f t="shared" si="0"/>
         <v>2.5920379963280293</v>
       </c>
     </row>
@@ -3696,7 +3696,7 @@
         <v>0.96499999999999997</v>
       </c>
       <c r="D28" s="1">
-        <f>B28/C28</f>
+        <f t="shared" si="0"/>
         <v>2.1945026352331607</v>
       </c>
     </row>
@@ -3708,7 +3708,7 @@
         <v>1.272</v>
       </c>
       <c r="D29" s="1">
-        <f>B29/C29</f>
+        <f t="shared" si="0"/>
         <v>2.7196789457547168</v>
       </c>
     </row>
@@ -3720,7 +3720,7 @@
         <v>0.83899999999999997</v>
       </c>
       <c r="D30" s="1">
-        <f>B30/C30</f>
+        <f t="shared" si="0"/>
         <v>4.1232796412395709</v>
       </c>
     </row>
@@ -3732,7 +3732,7 @@
         <v>1.3460000000000001</v>
       </c>
       <c r="D31" s="1">
-        <f>B31/C31</f>
+        <f t="shared" si="0"/>
         <v>2.570157220653789</v>
       </c>
     </row>
@@ -3744,7 +3744,7 @@
         <v>1.1479999999999999</v>
       </c>
       <c r="D32" s="1">
-        <f>B32/C32</f>
+        <f t="shared" si="0"/>
         <v>3.0134421768292685</v>
       </c>
     </row>
@@ -3756,7 +3756,7 @@
         <v>1.4910000000000001</v>
       </c>
       <c r="D33" s="1">
-        <f>B33/C33</f>
+        <f t="shared" si="0"/>
         <v>2.3202089999999997</v>
       </c>
     </row>
@@ -3768,7 +3768,7 @@
         <v>1.494</v>
       </c>
       <c r="D34" s="1">
-        <f>B34/C34</f>
+        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
         <v>2.3155499457831326</v>
       </c>
     </row>
@@ -3780,7 +3780,7 @@
         <v>1.3340000000000001</v>
       </c>
       <c r="D35" s="1">
-        <f>B35/C35</f>
+        <f t="shared" si="1"/>
         <v>2.5932770757121437</v>
       </c>
     </row>
@@ -3792,7 +3792,7 @@
         <v>1.099</v>
       </c>
       <c r="D36" s="1">
-        <f>B36/C36</f>
+        <f t="shared" si="1"/>
         <v>3.1477994713375796</v>
       </c>
     </row>
@@ -3804,7 +3804,7 @@
         <v>0.96599999999999997</v>
       </c>
       <c r="D37" s="1">
-        <f>B37/C37</f>
+        <f t="shared" si="1"/>
         <v>3.5811921521739132</v>
       </c>
     </row>
@@ -3816,7 +3816,7 @@
         <v>0.95399999999999996</v>
       </c>
       <c r="D38" s="1">
-        <f>B38/C38</f>
+        <f t="shared" si="1"/>
         <v>3.6262385943396227</v>
       </c>
     </row>
@@ -3828,7 +3828,7 @@
         <v>1.76</v>
       </c>
       <c r="D39" s="1">
-        <f>B39/C39</f>
+        <f t="shared" si="1"/>
         <v>2.2727272727272729</v>
       </c>
     </row>
@@ -3840,7 +3840,7 @@
         <v>1.6459999999999999</v>
       </c>
       <c r="D40" s="1">
-        <f>B40/C40</f>
+        <f t="shared" si="1"/>
         <v>2.4301336573511545</v>
       </c>
     </row>
@@ -3852,7 +3852,7 @@
         <v>0.43</v>
       </c>
       <c r="D41" s="1">
-        <f>B41/C41</f>
+        <f t="shared" si="1"/>
         <v>9.3023255813953494</v>
       </c>
     </row>
@@ -3864,7 +3864,7 @@
         <v>0.95699999999999996</v>
       </c>
       <c r="D42" s="1">
-        <f>B42/C42</f>
+        <f t="shared" si="1"/>
         <v>4.179728317659352</v>
       </c>
     </row>
@@ -3876,7 +3876,7 @@
         <v>1.5620000000000001</v>
       </c>
       <c r="D43" s="1">
-        <f>B43/C43</f>
+        <f t="shared" si="1"/>
         <v>2.5608194622279128</v>
       </c>
     </row>
@@ -3888,7 +3888,7 @@
         <v>1.4670000000000001</v>
       </c>
       <c r="D44" s="1">
-        <f>B44/C44</f>
+        <f t="shared" si="1"/>
         <v>2.7266530334014996</v>
       </c>
     </row>
@@ -3900,7 +3900,7 @@
         <v>1.367</v>
       </c>
       <c r="D45" s="1">
-        <f>B45/C45</f>
+        <f t="shared" si="1"/>
         <v>2.926115581565472</v>
       </c>
     </row>
@@ -3912,7 +3912,7 @@
         <v>0.60299999999999998</v>
       </c>
       <c r="D46" s="1">
-        <f>B46/C46</f>
+        <f t="shared" si="1"/>
         <v>6.6334991708126037</v>
       </c>
     </row>
@@ -3924,7 +3924,7 @@
         <v>1.446</v>
       </c>
       <c r="D47" s="1">
-        <f>B47/C47</f>
+        <f t="shared" si="1"/>
         <v>2.7662517289073305</v>
       </c>
     </row>
@@ -3936,7 +3936,7 @@
         <v>1.7</v>
       </c>
       <c r="D48" s="1">
-        <f>B48/C48</f>
+        <f t="shared" si="1"/>
         <v>2.3529411764705883</v>
       </c>
     </row>
@@ -3948,7 +3948,7 @@
         <v>1.2210000000000001</v>
       </c>
       <c r="D49" s="1">
-        <f>B49/C49</f>
+        <f t="shared" si="1"/>
         <v>2.6412500941850938</v>
       </c>
     </row>
@@ -3960,7 +3960,7 @@
         <v>1.0129999999999999</v>
       </c>
       <c r="D50" s="1">
-        <f>B50/C50</f>
+        <f t="shared" si="1"/>
         <v>3.1835798272458047</v>
       </c>
     </row>
@@ -3972,7 +3972,7 @@
         <v>0.94799999999999995</v>
       </c>
       <c r="D51" s="1">
-        <f>B51/C51</f>
+        <f t="shared" si="1"/>
         <v>3.4018632542194092</v>
       </c>
     </row>
@@ -3984,7 +3984,7 @@
         <v>1.1080000000000001</v>
       </c>
       <c r="D52" s="1">
-        <f>B52/C52</f>
+        <f t="shared" si="1"/>
         <v>2.9106194629963893</v>
       </c>
     </row>
@@ -3996,7 +3996,7 @@
         <v>1.3480000000000001</v>
       </c>
       <c r="D53" s="1">
-        <f>B53/C53</f>
+        <f t="shared" si="1"/>
         <v>2.3924082826409494</v>
       </c>
     </row>
@@ -4008,7 +4008,7 @@
         <v>1.1479999999999999</v>
       </c>
       <c r="D54" s="1">
-        <f>B54/C54</f>
+        <f t="shared" si="1"/>
         <v>2.8092041506968641</v>
       </c>
     </row>
@@ -4020,7 +4020,7 @@
         <v>1.298</v>
       </c>
       <c r="D55" s="1">
-        <f>B55/C55</f>
+        <f t="shared" si="1"/>
         <v>2.4845657665639442</v>
       </c>
     </row>
@@ -4032,7 +4032,7 @@
         <v>0.999</v>
       </c>
       <c r="D56" s="1">
-        <f>B56/C56</f>
+        <f t="shared" si="1"/>
         <v>3.2281945595595594</v>
       </c>
     </row>
@@ -4044,7 +4044,7 @@
         <v>0.88700000000000001</v>
       </c>
       <c r="D57" s="1">
-        <f>B57/C57</f>
+        <f t="shared" si="1"/>
         <v>3.6358132638105971</v>
       </c>
     </row>

--- a/Results.xlsx
+++ b/Results.xlsx
@@ -627,11 +627,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275693136"/>
-        <c:axId val="275911728"/>
+        <c:axId val="275515968"/>
+        <c:axId val="275486848"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275693136"/>
+        <c:axId val="275515968"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -688,12 +688,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275911728"/>
+        <c:crossAx val="275486848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275911728"/>
+        <c:axId val="275486848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -750,7 +750,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275693136"/>
+        <c:crossAx val="275515968"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -814,7 +814,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1250,11 +1249,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="275709520"/>
-        <c:axId val="275323560"/>
+        <c:axId val="275520488"/>
+        <c:axId val="275703560"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="275709520"/>
+        <c:axId val="275520488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1311,12 +1310,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275323560"/>
+        <c:crossAx val="275703560"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="275323560"/>
+        <c:axId val="275703560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1373,7 +1372,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="275709520"/>
+        <c:crossAx val="275520488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2538,16 +2537,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>357187</xdr:colOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1433512</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>42862</xdr:rowOff>
+      <xdr:rowOff>23812</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>280987</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>4762</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>33337</xdr:rowOff>
+      <xdr:rowOff>14287</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3768,7 +3767,7 @@
         <v>1.494</v>
       </c>
       <c r="D34" s="1">
-        <f t="shared" ref="D34:D65" si="1">B34/C34</f>
+        <f t="shared" ref="D34:D57" si="1">B34/C34</f>
         <v>2.3155499457831326</v>
       </c>
     </row>
